--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/因卓教育权限配置/因卓教育用户模块权限配置.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/因卓教育权限配置/因卓教育用户模块权限配置.xlsx
@@ -2284,7 +2284,7 @@
   <dimension ref="B3:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
